--- a/Project3757_A. Ganske(2021).xlsx
+++ b/Project3757_A. Ganske(2021).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516115A8-5E50-594B-A8AE-AF383F9B9611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C3F3F3-B43E-48DA-A588-DDE994227272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
+    <workbookView xWindow="255" yWindow="3510" windowWidth="15945" windowHeight="18375" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Project3757" sheetId="1" r:id="rId1"/>
@@ -331,55 +331,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>711201</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>98424</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7ECBC1E-BE2D-F0F7-6B8A-5575C64C4324}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9398000" y="292099"/>
-          <a:ext cx="10541000" cy="6588125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -705,14 +656,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.125" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -734,7 +685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -745,7 +696,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -756,7 +707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -767,7 +718,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -778,7 +729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -789,7 +740,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -800,7 +751,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -811,7 +762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -822,7 +773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -833,7 +784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -844,7 +795,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -855,7 +806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -866,7 +817,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -874,7 +825,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -885,7 +836,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -896,7 +847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -904,7 +855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -912,7 +863,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -923,7 +874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -934,7 +885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -945,7 +896,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -953,7 +904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -964,7 +915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -975,7 +926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -986,7 +937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -997,7 +948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1008,7 +959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1019,7 +970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1030,7 +981,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1041,7 +992,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1052,7 +1003,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1063,7 +1014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1074,7 +1025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1085,7 +1036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1096,7 +1047,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1107,7 +1058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1118,7 +1069,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1129,7 +1080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1140,7 +1091,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1151,7 +1102,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1162,7 +1113,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1173,7 +1124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1184,7 +1135,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1195,7 +1146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1203,7 +1154,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1211,7 +1162,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1222,7 +1173,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1230,7 +1181,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1241,7 +1192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1252,7 +1203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1263,7 +1214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1274,7 +1225,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1285,7 +1236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1296,7 +1247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1307,7 +1258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1318,7 +1269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1329,7 +1280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1340,7 +1291,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1348,7 +1299,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1359,7 +1310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1373,6 +1324,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>